--- a/数据整理/stocks/港股/00753-中国国航.xlsx
+++ b/数据整理/stocks/港股/00753-中国国航.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>60.25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.58</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.43</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>85.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00753-中国国航.xlsx
+++ b/数据整理/stocks/港股/00753-中国国航.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00753-中国国航.xlsx
+++ b/数据整理/stocks/港股/00753-中国国航.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00753-中国国航.xlsx
+++ b/数据整理/stocks/港股/00753-中国国航.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00753-中国国航.xlsx
+++ b/数据整理/stocks/港股/00753-中国国航.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.38</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.53</v>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00753-中国国航.xlsx
+++ b/数据整理/stocks/港股/00753-中国国航.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.48</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.38</v>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.53</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1889,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00753-中国国航.xlsx
+++ b/数据整理/stocks/港股/00753-中国国航.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.61</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.48</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.38</v>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2277,14 +2364,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.53</v>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5746</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2293,14 +2402,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2309,13 +2440,981 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4635</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00753-中国国航.xlsx
+++ b/数据整理/stocks/港股/00753-中国国航.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>10.79</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>4.61</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.48</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>3.38</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>3.53</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -600,6 +617,1580 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5390</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4517</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>52.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1681,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2193,7 +3784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2774,214 +4365,6 @@
       </c>
       <c r="H15" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>58.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0553</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007177</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2570</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3056,26 +4439,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>58.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3752</t>
+          <t>3.0553</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3084,36 +4467,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010381</t>
+          <t>007177</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智选价值混合A</t>
+          <t>浙商智能行业优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.54</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0951</t>
+          <t>0.2570</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3132,26 +4515,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>59.44</t>
+          <t>60.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0465</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3160,36 +4543,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010382</t>
+          <t>007217</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商智选价值混合C</t>
+          <t>浙商智能行业优选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.54</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0249</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3198,6 +4581,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3291,7 +4882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00753-中国国航.xlsx
+++ b/数据整理/stocks/港股/00753-中国国航.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>11.72</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>10.79</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>4.61</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.48</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>3.38</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>3.53</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -616,7 +633,1371 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +3571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3272,7 +4653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3784,7 +5165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4365,214 +5746,6 @@
       </c>
       <c r="H15" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>58.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0553</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007177</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2570</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4647,26 +5820,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>58.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3752</t>
+          <t>3.0553</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4675,36 +5848,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010381</t>
+          <t>007177</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智选价值混合A</t>
+          <t>浙商智能行业优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.54</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0951</t>
+          <t>0.2570</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4723,26 +5896,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>59.44</t>
+          <t>60.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0465</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4751,36 +5924,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010382</t>
+          <t>007217</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商智选价值混合C</t>
+          <t>浙商智能行业优选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.54</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0249</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4789,6 +5962,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4880,136 +6261,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1172</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>